--- a/data/trans_orig/P14A34-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A34-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{897671F7-52F5-451E-ACC4-D408B3801117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42710705-4101-4827-BA91-5C30B68C2A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4996AEC9-9345-4A7A-90BF-9F579B70FDE0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9D679BAC-DC9E-4D88-9ECC-4FEA3F53F14E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -102,13 +102,13 @@
     <t>89,63%</t>
   </si>
   <si>
-    <t>67,2%</t>
+    <t>67,96%</t>
   </si>
   <si>
     <t>10,37%</t>
   </si>
   <si>
-    <t>32,8%</t>
+    <t>32,04%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -117,19 +117,19 @@
     <t>77,76%</t>
   </si>
   <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
   </si>
   <si>
     <t>22,24%</t>
   </si>
   <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -138,19 +138,19 @@
     <t>79,91%</t>
   </si>
   <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
   </si>
   <si>
     <t>20,09%</t>
   </si>
   <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -159,37 +159,37 @@
     <t>87,7%</t>
   </si>
   <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
   </si>
   <si>
     <t>12,3%</t>
   </si>
   <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
   </si>
   <si>
     <t>83,85%</t>
   </si>
   <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
   </si>
   <si>
     <t>16,15%</t>
   </si>
   <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -207,25 +207,25 @@
     <t>79,74%</t>
   </si>
   <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
   </si>
   <si>
     <t>20,26%</t>
   </si>
   <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
   </si>
   <si>
     <t>88,27%</t>
   </si>
   <si>
-    <t>69,28%</t>
+    <t>69,44%</t>
   </si>
   <si>
     <t>96,46%</t>
@@ -237,61 +237,61 @@
     <t>3,54%</t>
   </si>
   <si>
-    <t>30,72%</t>
+    <t>30,56%</t>
   </si>
   <si>
     <t>82,53%</t>
   </si>
   <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
   </si>
   <si>
     <t>17,47%</t>
   </si>
   <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
   </si>
   <si>
     <t>86,38%</t>
   </si>
   <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
   </si>
   <si>
     <t>13,62%</t>
   </si>
   <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
   </si>
   <si>
     <t>86,32%</t>
   </si>
   <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
   </si>
   <si>
     <t>13,68%</t>
   </si>
   <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
   </si>
 </sst>
 </file>
@@ -703,7 +703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AAC200-2CE3-4EF0-A4C7-ACD60ED9AD1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4E287C-442B-4E7B-A1FE-89A2B0C4C481}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1730,7 +1730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6ADDD8A-CDF5-4B6E-B42F-107E0A39C0FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B0BF84-7B02-4208-BEE6-DA0B4E248A3D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A34-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A34-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42710705-4101-4827-BA91-5C30B68C2A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD24EFE4-AD68-400C-B81F-DCA89B2110E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9D679BAC-DC9E-4D88-9ECC-4FEA3F53F14E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{26D6BF05-7BFC-42D5-8E07-1B97F7D74C74}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -96,61 +96,61 @@
     <t>56,93%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>89,63%</t>
   </si>
   <si>
-    <t>67,96%</t>
+    <t>65,55%</t>
   </si>
   <si>
     <t>10,37%</t>
   </si>
   <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>77,76%</t>
   </si>
   <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
   </si>
   <si>
     <t>22,24%</t>
   </si>
   <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>79,91%</t>
   </si>
   <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
   </si>
   <si>
     <t>20,09%</t>
   </si>
   <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -159,43 +159,43 @@
     <t>87,7%</t>
   </si>
   <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
   </si>
   <si>
     <t>12,3%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
   </si>
   <si>
     <t>83,85%</t>
   </si>
   <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
   </si>
   <si>
     <t>16,15%</t>
   </si>
   <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por trastornos de próstata en 2015 (Tasa respuesta: 1,74%)</t>
+    <t>Población que recibe medicación o terapia por trastornos de próstata en 2016 (Tasa respuesta: 1,74%)</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -207,91 +207,91 @@
     <t>79,74%</t>
   </si>
   <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
   </si>
   <si>
     <t>20,26%</t>
   </si>
   <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
   </si>
   <si>
     <t>88,27%</t>
   </si>
   <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
   </si>
   <si>
     <t>11,73%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
   </si>
   <si>
     <t>82,53%</t>
   </si>
   <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
   </si>
   <si>
     <t>17,47%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
   </si>
   <si>
     <t>86,38%</t>
   </si>
   <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
   </si>
   <si>
     <t>13,62%</t>
   </si>
   <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
   </si>
   <si>
     <t>86,32%</t>
   </si>
   <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
   </si>
   <si>
     <t>13,68%</t>
   </si>
   <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
   </si>
 </sst>
 </file>
@@ -703,7 +703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4E287C-442B-4E7B-A1FE-89A2B0C4C481}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D425BC76-2C55-4584-B0C8-961CFBA66C7F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1730,7 +1730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B0BF84-7B02-4208-BEE6-DA0B4E248A3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45CEA4E-785C-49DC-8D77-918D9D6CC62B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
